--- a/部门间协作记录.xlsx
+++ b/部门间协作记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
   <si>
     <t>日期</t>
   </si>
@@ -147,6 +147,15 @@
     <t>需改变文件存储使用习惯</t>
   </si>
   <si>
+    <t>Carol</t>
+  </si>
+  <si>
+    <t>客退表</t>
+  </si>
+  <si>
+    <t>告知大体位置及对接人</t>
+  </si>
+  <si>
     <t>加班测试</t>
   </si>
   <si>
@@ -160,6 +169,33 @@
   </si>
   <si>
     <t>周二</t>
+  </si>
+  <si>
+    <t>Beatrice</t>
+  </si>
+  <si>
+    <t>思科官方列表资料</t>
+  </si>
+  <si>
+    <t>电脑里找了一份给她</t>
+  </si>
+  <si>
+    <t>询盘设备型号确认</t>
+  </si>
+  <si>
+    <t>确认并解答</t>
+  </si>
+  <si>
+    <t>周三</t>
+  </si>
+  <si>
+    <t>Aruba Cable兼容问题</t>
+  </si>
+  <si>
+    <t>QT-SFP-T-CO</t>
+  </si>
+  <si>
+    <t>进一步解决让冯工再次确认</t>
   </si>
 </sst>
 </file>
@@ -190,15 +226,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,6 +255,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -235,31 +278,52 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,59 +339,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,187 +378,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,60 +569,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -605,7 +587,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,8 +610,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,145 +677,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1144,12 +1180,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1422,7 +1458,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="3:10">
+    <row r="10" spans="3:12">
       <c r="C10" s="1" t="s">
         <v>43</v>
       </c>
@@ -1430,30 +1466,146 @@
         <v>44</v>
       </c>
       <c r="E10" s="3">
-        <v>0.760416666666667</v>
+        <v>0.759027777777778</v>
       </c>
       <c r="F10" s="3">
-        <v>0.829861111111111</v>
+        <v>0.759722222222222</v>
       </c>
       <c r="G10" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="L10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10">
+      <c r="C11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.760416666666667</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.829861111111111</v>
+      </c>
+      <c r="G11" s="1">
+        <v>100</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1">
+    <row r="13" spans="1:12">
+      <c r="A13" s="1">
         <v>12.8</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>47</v>
+      <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.586111111111111</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.588194444444444</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8">
+      <c r="C15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.359722222222222</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.361111111111111</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.3625</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.363888888888889</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12">
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.366666666666667</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.368055555555556</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
